--- a/我的创作/财务/股票/交易系统/SEAP交易系统/交易计划.xlsx
+++ b/我的创作/财务/股票/交易系统/SEAP交易系统/交易计划.xlsx
@@ -3042,11 +3042,11 @@
   <dimension ref="A1:BH540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="H64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F64" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N78" sqref="N78"/>
+      <selection pane="bottomRight" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.82142857142857" defaultRowHeight="14.8"/>
